--- a/doc/milestone2le/measurements_increase_load/total_fixed.xlsx
+++ b/doc/milestone2le/measurements_increase_load/total_fixed.xlsx
@@ -342,6 +342,30 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$302</c:f>
@@ -3116,11 +3140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70173440"/>
-        <c:axId val="70175360"/>
+        <c:axId val="179421952"/>
+        <c:axId val="179423872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70173440"/>
+        <c:axId val="179421952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70175360"/>
+        <c:crossAx val="179423872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3159,7 +3183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70175360"/>
+        <c:axId val="179423872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3190,7 +3214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70173440"/>
+        <c:crossAx val="179421952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3271,6 +3295,102 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tabelle1!$E$2:$E$302</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="301"/>
+                  <c:pt idx="15">
+                    <c:v>14.4668536288707</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>41.038691789677799</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>17.8959505784659</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29.3810915743246</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>31.689045658871699</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>54.940122301610501</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>54.045528682650797</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>51.728958330149702</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>52.050476177507598</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>52.367742647772602</c:v>
+                  </c:pt>
+                  <c:pt idx="270">
+                    <c:v>49.053878499834902</c:v>
+                  </c:pt>
+                  <c:pt idx="300">
+                    <c:v>46.447093583927099</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tabelle1!$E$2:$E$302</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="301"/>
+                  <c:pt idx="15">
+                    <c:v>14.4668536288707</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>41.038691789677799</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>17.8959505784659</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>29.3810915743246</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>31.689045658871699</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>54.940122301610501</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>54.045528682650797</c:v>
+                  </c:pt>
+                  <c:pt idx="180">
+                    <c:v>51.728958330149702</c:v>
+                  </c:pt>
+                  <c:pt idx="210">
+                    <c:v>52.050476177507598</c:v>
+                  </c:pt>
+                  <c:pt idx="240">
+                    <c:v>52.367742647772602</c:v>
+                  </c:pt>
+                  <c:pt idx="270">
+                    <c:v>49.053878499834902</c:v>
+                  </c:pt>
+                  <c:pt idx="300">
+                    <c:v>46.447093583927099</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$302</c:f>
@@ -5178,11 +5298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70222208"/>
-        <c:axId val="70224128"/>
+        <c:axId val="179470720"/>
+        <c:axId val="179472640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70222208"/>
+        <c:axId val="179470720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5216,7 +5336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70224128"/>
+        <c:crossAx val="179472640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5226,7 +5346,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70224128"/>
+        <c:axId val="179472640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5257,7 +5377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70222208"/>
+        <c:crossAx val="179470720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5302,7 +5422,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307651" cy="6009060"/>
+    <xdr:ext cx="9307651" cy="6021846"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>

--- a/doc/milestone2le/measurements_increase_load/total_fixed.xlsx
+++ b/doc/milestone2le/measurements_increase_load/total_fixed.xlsx
@@ -9754,7 +9754,7 @@
   <dimension ref="A1:V511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
